--- a/pre/shok/gr/fortunella/Преленд 4 Fortunella Шок- контент GR.xlsx
+++ b/pre/shok/gr/fortunella/Преленд 4 Fortunella Шок- контент GR.xlsx
@@ -40,7 +40,18 @@
     <t xml:space="preserve">Οι σταγόνες Fortunella </t>
   </si>
   <si>
-    <t>καίνε το λίπος γρήγορα και για πάντα</t>
+    <r>
+      <t xml:space="preserve">καίνε το λίπος γρήγορα </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">μια </t>
+    </r>
+    <r>
+      <t>για πάντα</t>
+    </r>
   </si>
   <si>
     <t>230</t>
@@ -185,7 +196,18 @@
     <t>Η δράση των</t>
   </si>
   <si>
-    <t>γίνεται αισθητή την πρώτη εβδομάδα, χάνετε ένα με δύο κιλά. Τις επόμενες εβδομάδες η διαδικασία του αδυνατίσματος θα πραγματοποιείται με αργούς ρυθμούς, αλλά μην ανησυχείτε. Είναι γεγονώς ότι αυτό το συμπλήρωμα δρα ήπια και η καύση του λίπους γίνεται αργά. Αλλά αυτό είναι το πιο σημαντικό! Ότι καίει το λίπος μέχρι τέλους. Τότε το υπερβολικό βάρος δεν επιστρέφει. Και αν μετά από την θεραπεία</t>
+    <r>
+      <t xml:space="preserve">γίνεται αισθητή την πρώτη εβδομάδα, χάνετε ένα με δύο κιλά. Τις επόμενες εβδομάδες η διαδικασία του αδυνατίσματος θα πραγματοποιείται με αργούς ρυθμούς, αλλά μην ανησυχείτε. Είναι γεγονώς ότι αυτό το συμπλήρωμα δρα ήπια και η καύση του λίπους γίνεται αργά. Αλλά αυτό είναι το πιο σημαντικό! Ότι </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">καίγεται </t>
+    </r>
+    <r>
+      <t>το λίπος μέχρι τέλους. Τότε το υπερβολικό βάρος δεν επιστρέφει. Και αν μετά από την θεραπεία</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">του συμπληρώματος Fortunella </t>
@@ -700,7 +722,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -716,11 +738,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,6 +770,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF6D9EEB"/>
         <bgColor rgb="FF6D9EEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
     <fill>
@@ -772,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -783,6 +816,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -812,7 +848,10 @@
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -821,7 +860,7 @@
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -839,7 +878,7 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1096,7 +1135,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1121,12 +1160,12 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1146,17 +1185,17 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1176,7 +1215,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1186,7 +1225,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1196,27 +1235,27 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1226,12 +1265,12 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1246,7 +1285,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1271,12 +1310,12 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1286,17 +1325,17 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1321,7 +1360,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1331,32 +1370,32 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1366,7 +1405,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1386,12 +1425,12 @@
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1411,17 +1450,17 @@
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1431,12 +1470,12 @@
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1446,7 +1485,7 @@
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1476,12 +1515,12 @@
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1491,12 +1530,12 @@
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1506,12 +1545,12 @@
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="20" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1521,62 +1560,62 @@
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="19" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="19" t="s">
+      <c r="A104" s="21" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1586,27 +1625,27 @@
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="19" t="s">
+      <c r="A110" s="21" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1616,7 +1655,7 @@
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="23" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1626,22 +1665,22 @@
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="21" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1651,12 +1690,12 @@
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="21" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1666,7 +1705,7 @@
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="18" t="s">
+      <c r="A122" s="20" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1676,32 +1715,32 @@
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="17" t="s">
+      <c r="A128" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="18" t="s">
+      <c r="A129" s="20" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1711,7 +1750,7 @@
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="21" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1721,52 +1760,52 @@
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="19" t="s">
+      <c r="A134" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="19" t="s">
+      <c r="A135" s="21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="19" t="s">
+      <c r="A136" s="21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="19" t="s">
+      <c r="A140" s="21" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="21" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="21" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2641,42 +2680,42 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>123</v>
       </c>
     </row>
